--- a/doc/MagicCenter.xlsx
+++ b/doc/MagicCenter.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,58 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>muidea.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webcenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>router</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -32,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,23 +80,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +405,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/MagicCenter.xlsx
+++ b/doc/MagicCenter.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="6750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据库" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>muidea.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +43,190 @@
   </si>
   <si>
     <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章表，存储用户提交的文章信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catalog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片表，保存用户上传的图片信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接信息表，保存用户登记的链接信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类表，存储分类信息，可用于文章，图片，链接分类管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource_relative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源表，article,image,link,catalog都是一种资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录项，定义一个功能块包含的记录项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能块表，定义一个Module包含有多少用于定义页面布局的功能块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面信息表，定义一个页面含有的功能块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点属性，用来记录一些通用属性，通过属性名记录和访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组信息表，用于进行权限管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3，9个月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B+ 1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A- 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明年1月期权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五险2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公积金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -64,15 +250,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -95,13 +287,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -408,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -477,4 +717,274 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.25" customWidth="1"/>
+    <col min="3" max="3" width="60.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <f>B2/12</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D2">
+        <f>C2*3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>